--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeSkillID_1</t>
+  </si>
+  <si>
+    <t>activeSkillID_2</t>
+  </si>
+  <si>
+    <t>passiveSkillID_1</t>
+  </si>
+  <si>
+    <t>passiveSkillID_2</t>
+  </si>
+  <si>
+    <t>basicAttackSKillID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,7 +475,7 @@
     <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -493,8 +509,23 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -527,6 +558,21 @@
       </c>
       <c r="K2" s="2">
         <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,13 +563,13 @@
         <v>10000</v>
       </c>
       <c r="M2" s="3">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="N2" s="3">
-        <v>-1</v>
+        <v>10002</v>
       </c>
       <c r="O2" s="3">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="P2" s="3">
         <v>-1</v>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F26846-1B11-480B-8F38-47789D5FFF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -451,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,10 +567,10 @@
         <v>10001</v>
       </c>
       <c r="N2" s="3">
-        <v>10002</v>
+        <v>-1</v>
       </c>
       <c r="O2" s="3">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="P2" s="3">
         <v>-1</v>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F26846-1B11-480B-8F38-47789D5FFF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -452,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +566,7 @@
         <v>10001</v>
       </c>
       <c r="N2" s="3">
-        <v>-1</v>
+        <v>10002</v>
       </c>
       <c r="O2" s="3">
         <v>20000</v>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <t>effectResistance</t>
   </si>
   <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,18 @@
   </si>
   <si>
     <t>basicAttackSKillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 테스트 유닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 테스트 유닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,16 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
@@ -472,7 +480,7 @@
     <col min="10" max="10" width="10.625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="15" max="15" width="15.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -510,19 +518,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -530,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -572,6 +580,56 @@
         <v>20000</v>
       </c>
       <c r="P2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>10003</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10004</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002BAB3-38C4-4A85-84F9-E956FE403FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UnitData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -459,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002BAB3-38C4-4A85-84F9-E956FE403FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5773E-78E7-49AB-8271-D29F5DEAEAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24375" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,15 +117,22 @@
   <si>
     <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelValue</t>
+  </si>
+  <si>
+    <t>gradeValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -170,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +186,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,11 +490,12 @@
     <col min="9" max="9" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.875" style="2" customWidth="1"/>
+    <col min="14" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -518,23 +529,29 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -568,23 +585,29 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="3">
         <v>10000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="O2" s="3">
         <v>10001</v>
       </c>
-      <c r="N2" s="3">
+      <c r="P2" s="3">
         <v>10002</v>
       </c>
-      <c r="O2" s="3">
+      <c r="Q2" s="3">
         <v>20000</v>
       </c>
-      <c r="P2" s="3">
+      <c r="R2" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -618,21 +641,215 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="1">
         <v>10000</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>10003</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>10004</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>-1</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>-1</v>
       </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5773E-78E7-49AB-8271-D29F5DEAEAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-24375" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24375" yWindow="3480" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,9 +73,6 @@
     <t>speed</t>
   </si>
   <si>
-    <t>criticalPoint</t>
-  </si>
-  <si>
     <t>criticalDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,16 +119,19 @@
   </si>
   <si>
     <t>gradeValue</t>
+  </si>
+  <si>
+    <t>criticalPercent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -188,7 +187,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,37 +517,37 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -556,10 +555,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -612,10 +611,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>100</v>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5617E-33DE-4B77-B301-384394C75676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24375" yWindow="3480" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="7200" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,12 +123,27 @@
   </si>
   <si>
     <t>criticalPercent</t>
+  </si>
+  <si>
+    <t>defaultGrade</t>
+  </si>
+  <si>
+    <t>등급 테스트 유닛(평범)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 테스트 유닛(희귀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 테스트 유닛(고유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -469,32 +485,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.875" style="2" customWidth="1"/>
-    <col min="14" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.875" style="2" customWidth="1"/>
+    <col min="15" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -504,53 +521,56 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -560,21 +580,21 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
       <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
@@ -584,29 +604,32 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
         <v>0.2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>0.5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>10000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>10001</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>10002</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>20000</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -616,21 +639,21 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
       <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
@@ -640,215 +663,383 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>0.2</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0.5</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>10000</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>10003</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>10004</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>-1</v>
       </c>
       <c r="R3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L7" s="4"/>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10003</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10004</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>10003</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>10004</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10004</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L8" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L9" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L10" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L11" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L12" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L13" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L14" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L15" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L16" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L17" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L18" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L19" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L20" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L21" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L22" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L23" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L24" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L25" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L26" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L27" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L28" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L29" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L30" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L31" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L32" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L33" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L34" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L35" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L36" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L37" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L38" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L39" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L40" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L41" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L42" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L43" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L44" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L45" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L46" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L47" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L48" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L49" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L50" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5617E-33DE-4B77-B301-384394C75676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DD24F5-D6FA-4A9A-B7F9-3526A38EAAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,27 @@
   <si>
     <t>등급 테스트 유닛(고유)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraitImageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knight_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf_6</t>
+  </si>
+  <si>
+    <t>Dwarf_12</t>
+  </si>
+  <si>
+    <t>Dwarf_15</t>
   </si>
 </sst>
 </file>
@@ -192,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +227,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -486,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T6" sqref="T2:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,9 +531,11 @@
     <col min="13" max="14" width="18.875" style="2" customWidth="1"/>
     <col min="15" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -569,8 +593,11 @@
       <c r="S1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -628,8 +655,11 @@
       <c r="S2" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -687,8 +717,11 @@
       <c r="S3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>102</v>
       </c>
@@ -746,8 +779,11 @@
       <c r="S4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>103</v>
       </c>
@@ -805,8 +841,11 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>104</v>
       </c>
@@ -864,44 +903,47 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DD24F5-D6FA-4A9A-B7F9-3526A38EAAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,12 +158,21 @@
   </si>
   <si>
     <t>Dwarf_15</t>
+  </si>
+  <si>
+    <t>animationName</t>
+  </si>
+  <si>
+    <t>FireKnightAnimCT</t>
+  </si>
+  <si>
+    <t>RangerAnimCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -507,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T2:T6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,9 +541,10 @@
     <col min="18" max="18" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -596,8 +605,11 @@
       <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -658,8 +670,11 @@
       <c r="T2" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -720,8 +735,11 @@
       <c r="T3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>102</v>
       </c>
@@ -782,8 +800,11 @@
       <c r="T4" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>103</v>
       </c>
@@ -844,8 +865,11 @@
       <c r="T5" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>104</v>
       </c>
@@ -906,44 +930,47 @@
       <c r="T6" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -163,10 +163,10 @@
     <t>animationName</t>
   </si>
   <si>
-    <t>FireKnightAnimCT</t>
-  </si>
-  <si>
-    <t>RangerAnimCT</t>
+    <t>FireKnight_AnimCT 1</t>
+  </si>
+  <si>
+    <t>Ragner_AnimCT</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -163,10 +163,11 @@
     <t>animationName</t>
   </si>
   <si>
-    <t>FireKnight_AnimCT 1</t>
-  </si>
-  <si>
     <t>Ragner_AnimCT</t>
+  </si>
+  <si>
+    <t>FireKnight_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,7 +520,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +672,7 @@
         <v>27</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -736,7 +737,7 @@
         <v>28</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -801,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -866,7 +867,7 @@
         <v>30</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -931,7 +932,7 @@
         <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29FA7E0-69F2-4384-8149-A3983EB01D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,17 +164,27 @@
     <t>animationName</t>
   </si>
   <si>
+    <t>FireKnight_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterPriestess_AnimCT</t>
+  </si>
+  <si>
     <t>Ragner_AnimCT</t>
-  </si>
-  <si>
-    <t>FireKnight_AnimCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetalBladekeeper_AnimCT</t>
+  </si>
+  <si>
+    <t>GroundMonkAnim_AnimCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -222,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,7 +247,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -516,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,7 +637,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -668,11 +678,11 @@
       <c r="S2" s="3">
         <v>-1</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -689,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
@@ -698,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -733,11 +743,11 @@
       <c r="S3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" t="s">
         <v>28</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -763,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -798,11 +808,11 @@
       <c r="S4" s="1">
         <v>-1</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" t="s">
         <v>29</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -863,11 +873,11 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" t="s">
         <v>30</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -884,16 +894,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -908,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N6" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
@@ -928,11 +938,11 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" t="s">
         <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29FA7E0-69F2-4384-8149-A3983EB01D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,12 +178,16 @@
   </si>
   <si>
     <t>GroundMonkAnim_AnimCT</t>
+  </si>
+  <si>
+    <t>isUserUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -526,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,24 +541,24 @@
     <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.875" style="2" customWidth="1"/>
-    <col min="15" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.875" style="2" customWidth="1"/>
+    <col min="16" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,61 +569,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -630,24 +636,24 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
       <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
@@ -657,35 +663,38 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>0.5</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>10000</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>10001</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>10002</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>20000</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>-1</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -695,24 +704,24 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>80</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
       <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>80</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
@@ -722,35 +731,38 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.2</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>0.5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>10000</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>10003</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>10004</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-1</v>
       </c>
       <c r="S3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>102</v>
       </c>
@@ -760,24 +772,24 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
       <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>90</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
@@ -787,35 +799,38 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>0.5</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>10000</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>10003</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>10004</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-1</v>
       </c>
       <c r="S4" s="1">
         <v>-1</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>103</v>
       </c>
@@ -825,24 +840,24 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
       <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
@@ -852,35 +867,38 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>0.5</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>10000</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>10003</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>10004</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-1</v>
       </c>
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>104</v>
       </c>
@@ -890,24 +908,24 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>150</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>25</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>110</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
@@ -917,209 +935,212 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.25</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>0.6</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>10000</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>10003</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>10004</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-1</v>
       </c>
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M7" s="4"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M8" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M9" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M10" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M11" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M12" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M13" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M14" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M15" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M16" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M17" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M18" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M19" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M20" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M21" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M22" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M23" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M24" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M25" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M26" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M28" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M29" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M30" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M31" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M32" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M33" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M34" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M35" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M36" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M37" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M38" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M39" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M40" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M41" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M42" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M43" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M44" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M45" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M46" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M47" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M48" s="4"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M49" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M50" s="4"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,18 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 테스트 유닛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐 테스트 유닛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>levelValue</t>
   </si>
   <si>
@@ -125,62 +113,27 @@
   </si>
   <si>
     <t>defaultGrade</t>
-  </si>
-  <si>
-    <t>등급 테스트 유닛(평범)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급 테스트 유닛(희귀)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급 테스트 유닛(고유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>portraitImageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Knight_1</t>
+    <t>animationName</t>
+  </si>
+  <si>
+    <t>isUserUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human_9</t>
+    <t>지크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Elf_6</t>
-  </si>
-  <si>
-    <t>Dwarf_12</t>
-  </si>
-  <si>
-    <t>Dwarf_15</t>
-  </si>
-  <si>
-    <t>animationName</t>
-  </si>
-  <si>
-    <t>FireKnight_AnimCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaterPriestess_AnimCT</t>
-  </si>
-  <si>
-    <t>Ragner_AnimCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetalBladekeeper_AnimCT</t>
-  </si>
-  <si>
-    <t>GroundMonkAnim_AnimCT</t>
-  </si>
-  <si>
-    <t>isUserUnit</t>
+    <t>ZICH_AnimCT</t>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_ZICH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +507,7 @@
     <col min="16" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,10 +522,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -587,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -599,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -620,10 +573,10 @@
         <v>14</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -631,7 +584,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -643,22 +596,22 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
         <v>15</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -667,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O2" s="4">
         <v>0.2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.5</v>
       </c>
       <c r="P2" s="3">
         <v>10000</v>
@@ -687,284 +640,28 @@
       <c r="T2" s="3">
         <v>-1</v>
       </c>
-      <c r="U2" t="s">
-        <v>27</v>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>80</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>80</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>10003</v>
-      </c>
-      <c r="R3" s="1">
-        <v>10004</v>
-      </c>
-      <c r="S3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>90</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>10003</v>
-      </c>
-      <c r="R4" s="1">
-        <v>10004</v>
-      </c>
-      <c r="S4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>10003</v>
-      </c>
-      <c r="R5" s="1">
-        <v>10004</v>
-      </c>
-      <c r="S5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>150</v>
-      </c>
-      <c r="G6" s="2">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>110</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="P6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>10003</v>
-      </c>
-      <c r="R6" s="1">
-        <v>10004</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N7" s="4"/>
@@ -1125,22 +822,6 @@
     <row r="46" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,17 @@
   </si>
   <si>
     <t>Sprite_Unit_Portrait_ZICH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_LOSA</t>
+  </si>
+  <si>
+    <t>LOSA_AnimCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -499,12 +510,13 @@
     <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="18.875" style="2" customWidth="1"/>
-    <col min="16" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.125" bestFit="1" customWidth="1"/>
@@ -539,16 +551,16 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -607,16 +619,16 @@
       <c r="I2" s="2">
         <v>100</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>0.1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>0.2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>0</v>
       </c>
       <c r="N2" s="4">
@@ -648,8 +660,72 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="A3" s="3">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>110</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>10003</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>10004</v>
+      </c>
+      <c r="R3" s="3">
+        <v>10005</v>
+      </c>
+      <c r="S3" s="3">
+        <v>20001</v>
+      </c>
+      <c r="T3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N4" s="4"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79B1C5-6AD0-4D97-BE10-72BA4797A3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,13 +146,24 @@
   </si>
   <si>
     <t>LOSA_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_LILY</t>
+  </si>
+  <si>
+    <t>LILY_AnimCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -493,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,7 +531,7 @@
     <col min="17" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,8 +740,72 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="A4" s="3">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>105</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10006</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10007</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10008</v>
+      </c>
+      <c r="S4" s="1">
+        <v>20002</v>
+      </c>
+      <c r="T4" s="1">
+        <v>20003</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N5" s="4"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79B1C5-6AD0-4D97-BE10-72BA4797A3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D3A46-30C2-4687-96DC-950E54BEBB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,17 @@
   </si>
   <si>
     <t>LILY_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_AVATA</t>
+  </si>
+  <si>
+    <t>AVATA_AnimCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +520,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -808,8 +819,72 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="A5" s="3">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>110</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>105</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="1">
+        <v>10009</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>10010</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10011</v>
+      </c>
+      <c r="S5" s="1">
+        <v>20004</v>
+      </c>
+      <c r="T5" s="1">
+        <v>20005</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N6" s="4"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D3A46-30C2-4687-96DC-950E54BEBB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,12 +168,22 @@
   <si>
     <t>AVATA_AnimCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그웬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_GWEN</t>
+  </si>
+  <si>
+    <t>GWEN_AnimCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -516,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,8 +896,72 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="A6" s="3">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>120</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>10012</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10013</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10014</v>
+      </c>
+      <c r="S6" s="1">
+        <v>20006</v>
+      </c>
+      <c r="T6" s="1">
+        <v>20007</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N7" s="4"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,54 @@
   </si>
   <si>
     <t>GWEN_AnimCT</t>
+  </si>
+  <si>
+    <t>고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악성포자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_Goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushroom_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_Skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -232,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +293,12 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,8 +605,8 @@
     <col min="17" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -684,10 +738,10 @@
       <c r="T2" s="3">
         <v>-1</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -752,10 +806,10 @@
       <c r="T3" s="3">
         <v>-1</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -820,10 +874,10 @@
       <c r="T4" s="1">
         <v>20003</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -888,10 +942,10 @@
       <c r="T5" s="1">
         <v>20005</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -956,28 +1010,284 @@
       <c r="T6" s="1">
         <v>20007</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="A7" s="3">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="A8" s="3">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="A9" s="3">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>75</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="A10" s="3">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>90</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N11" s="4"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>Ghost_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음수확자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Unit_Portrait_DeathBringer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathBringer_AnimCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1290,8 +1302,72 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="A11" s="3">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N12" s="4"/>

--- a/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/UnitDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175DF4E9-1109-4F3A-B84A-6BB549E66AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -591,11 +592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1352,7 @@
         <v>10000</v>
       </c>
       <c r="Q11" s="1">
-        <v>-1</v>
+        <v>10015</v>
       </c>
       <c r="R11" s="1">
         <v>-1</v>
